--- a/Data/Seungjun - POS+INV - March 2020.xlsx
+++ b/Data/Seungjun - POS+INV - March 2020.xlsx
@@ -1,33 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyrusp\Documents\SiTime Sales Data\Distrib_POS\Seungjun\2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JeffreyGeorge\PycharmProjects\SiTimeFileAnalysis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0F45CA-F6AE-4376-B158-DD022B1CE004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566E7E7B-350C-4FDC-99BA-72FC90A353C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-17480" yWindow="-17570" windowWidth="17280" windowHeight="15640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="POS_Mar2020" sheetId="2" r:id="rId1"/>
     <sheet name="Inventory_20200331" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Inventory_20200331!$A$4:$F$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Inventory_20200331!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="99">
-  <si>
-    <t>Month</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="95">
   <si>
     <t>Distributor</t>
   </si>
@@ -77,14 +74,6 @@
     <t xml:space="preserve">Disti Cost </t>
   </si>
   <si>
-    <t>SiTime Inventory Format</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>yyyymmdd</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Distributor</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -350,31 +339,6 @@
   </si>
   <si>
     <t>SAMSUNG</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>31</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>st</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Mar., 2020</t>
-    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -393,7 +357,7 @@
     <numFmt numFmtId="171" formatCode="0.0000"/>
     <numFmt numFmtId="172" formatCode="#,##0.0000_ ;[Red]\-#,##0.0000\ "/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,13 +449,6 @@
       <charset val="129"/>
     </font>
     <font>
-      <vertAlign val="superscript"/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -576,7 +533,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -589,7 +546,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -688,13 +645,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="14" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="14" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -718,7 +675,7 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1581,14 +1538,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2181225</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>34289</xdr:rowOff>
+      <xdr:colOff>106045</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>31749</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1626,14 +1583,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>34289</xdr:rowOff>
+      <xdr:colOff>106045</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>31749</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1671,14 +1628,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>34289</xdr:rowOff>
+      <xdr:colOff>106045</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>31749</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1716,14 +1673,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>34289</xdr:rowOff>
+      <xdr:colOff>106045</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>31749</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1761,14 +1718,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>34289</xdr:rowOff>
+      <xdr:colOff>106045</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>31749</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1806,14 +1763,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>34289</xdr:rowOff>
+      <xdr:colOff>106045</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>31749</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1851,14 +1808,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>34289</xdr:rowOff>
+      <xdr:colOff>106045</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>31749</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1896,14 +1853,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>34289</xdr:rowOff>
+      <xdr:colOff>106045</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>31749</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1941,14 +1898,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>34289</xdr:rowOff>
+      <xdr:colOff>106045</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>31749</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2311,93 +2268,93 @@
   </sheetPr>
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="12.453125" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.90625" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.7265625" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.36328125" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6328125" style="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6328125" style="30" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.47265625" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.89453125" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.734375" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.3671875" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.62890625" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.62890625" style="30" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="30" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7265625" style="30" customWidth="1"/>
-    <col min="9" max="9" width="8.36328125" style="30" customWidth="1"/>
-    <col min="10" max="10" width="12.90625" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.734375" style="30" customWidth="1"/>
+    <col min="9" max="9" width="8.3671875" style="30" customWidth="1"/>
+    <col min="10" max="10" width="12.89453125" style="31" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" style="31" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.08984375" style="30" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.453125" style="30" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.90625" style="31" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.26953125" style="30" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.08984375" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.08984375" style="30"/>
+    <col min="12" max="12" width="21.1015625" style="30" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.47265625" style="30" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.89453125" style="31" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.26171875" style="30" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.1015625" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.1015625" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" ht="14.1">
       <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="G1" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="27" t="s">
+      <c r="J1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="K1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="L1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="M1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="N1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="O1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="14.5">
+    </row>
+    <row r="2" spans="1:15" ht="14.4">
       <c r="A2" s="29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E2" s="37">
         <v>200000</v>
@@ -2412,7 +2369,7 @@
         <v>0.193</v>
       </c>
       <c r="I2" s="39" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J2" s="36">
         <v>20200302</v>
@@ -2421,30 +2378,30 @@
         <v>34145</v>
       </c>
       <c r="L2" s="39" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M2" s="39" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="N2" s="43">
         <v>20021263</v>
       </c>
       <c r="O2" s="39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="14.5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="14.4">
       <c r="A3" s="29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E3" s="37">
         <v>1000</v>
@@ -2459,39 +2416,39 @@
         <v>0.247</v>
       </c>
       <c r="I3" s="39" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J3" s="36">
         <v>20200302</v>
       </c>
       <c r="K3" s="43" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L3" s="39" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M3" s="39" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="N3" s="43" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O3" s="39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="14.5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="14.4">
       <c r="A4" s="29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E4" s="37">
         <v>3</v>
@@ -2506,39 +2463,39 @@
         <v>0.8569</v>
       </c>
       <c r="I4" s="39" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J4" s="36">
         <v>20200302</v>
       </c>
       <c r="K4" s="43" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L4" s="39" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M4" s="39" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="N4" s="43" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O4" s="39" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="14.5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="14.4">
       <c r="A5" s="29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E5" s="37">
         <v>10</v>
@@ -2553,39 +2510,39 @@
         <v>0.247</v>
       </c>
       <c r="I5" s="39" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J5" s="36">
         <v>20200303</v>
       </c>
       <c r="K5" s="43" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L5" s="39" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M5" s="39" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="N5" s="43" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O5" s="39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="14.5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="14.4">
       <c r="A6" s="29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E6" s="37">
         <v>10</v>
@@ -2600,39 +2557,39 @@
         <v>0.247</v>
       </c>
       <c r="I6" s="39" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J6" s="36">
         <v>20200303</v>
       </c>
       <c r="K6" s="43" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L6" s="39" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M6" s="39" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="N6" s="43" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O6" s="39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="14.5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="14.4">
       <c r="A7" s="29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E7" s="37">
         <v>250</v>
@@ -2647,39 +2604,39 @@
         <v>0.2185</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J7" s="36">
         <v>20200305</v>
       </c>
       <c r="K7" s="43" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L7" s="39" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M7" s="39" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="N7" s="43" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O7" s="39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="14.5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="14.4">
       <c r="A8" s="29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E8" s="37">
         <v>130000</v>
@@ -2694,7 +2651,7 @@
         <v>0.193</v>
       </c>
       <c r="I8" s="39" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J8" s="36">
         <v>20200311</v>
@@ -2703,30 +2660,30 @@
         <v>34145</v>
       </c>
       <c r="L8" s="39" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M8" s="39" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="N8" s="43">
         <v>20021263</v>
       </c>
       <c r="O8" s="39" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="14.5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="14.4">
       <c r="A9" s="29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E9" s="37">
         <v>5</v>
@@ -2741,39 +2698,39 @@
         <v>0.8569</v>
       </c>
       <c r="I9" s="39" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J9" s="36">
         <v>20200311</v>
       </c>
       <c r="K9" s="43" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L9" s="39" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M9" s="39" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="N9" s="43" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O9" s="39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="14.5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="14.4">
       <c r="A10" s="29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E10" s="37">
         <v>21</v>
@@ -2788,39 +2745,39 @@
         <v>0.2185</v>
       </c>
       <c r="I10" s="39" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J10" s="36">
         <v>20200313</v>
       </c>
       <c r="K10" s="43" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L10" s="39" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M10" s="39" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="N10" s="43" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O10" s="39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="14.5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="14.4">
       <c r="A11" s="29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E11" s="37">
         <v>30</v>
@@ -2835,39 +2792,39 @@
         <v>2.3778999999999999</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J11" s="36">
         <v>20200320</v>
       </c>
       <c r="K11" s="43" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L11" s="39" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M11" s="39" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="N11" s="43" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O11" s="39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="14.5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="14.4">
       <c r="A12" s="29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E12" s="37">
         <v>1</v>
@@ -2882,39 +2839,39 @@
         <v>2.3778999999999999</v>
       </c>
       <c r="I12" s="39" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J12" s="36">
         <v>20200320</v>
       </c>
       <c r="K12" s="43" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L12" s="39" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M12" s="39" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="N12" s="43" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O12" s="39" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="14.5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="14.4">
       <c r="A13" s="29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E13" s="37">
         <v>100</v>
@@ -2929,39 +2886,39 @@
         <v>0.2185</v>
       </c>
       <c r="I13" s="39" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J13" s="36">
         <v>20200323</v>
       </c>
       <c r="K13" s="43" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="L13" s="39" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M13" s="39" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="N13" s="43" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O13" s="39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="14.5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="14.4">
       <c r="A14" s="29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E14" s="37">
         <v>10</v>
@@ -2976,25 +2933,25 @@
         <v>3.0106000000000002</v>
       </c>
       <c r="I14" s="39" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J14" s="36">
         <v>20200330</v>
       </c>
       <c r="K14" s="43" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="L14" s="39" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M14" s="39" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="N14" s="43" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O14" s="39" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3013,193 +2970,259 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="9" ySplit="4" topLeftCell="J20" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M39" sqref="M39"/>
+      <selection pane="bottomRight" sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="21" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.734375" defaultRowHeight="21" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.36328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.08984375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.47265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.1015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.3671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1015625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.3671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.89453125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.453125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.47265625" style="1" customWidth="1"/>
     <col min="9" max="9" width="7" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7265625" style="1"/>
-    <col min="11" max="12" width="13.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="8.08984375" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.7265625" style="1"/>
+    <col min="10" max="10" width="8.734375" style="1"/>
+    <col min="11" max="12" width="13.62890625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.1015625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="C1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="2" spans="1:12" ht="21" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="A2" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="11">
+        <v>9870</v>
+      </c>
+      <c r="D2" s="32">
+        <v>0.3135</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="21"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="45"/>
     </row>
     <row r="3" spans="1:12" ht="21" customHeight="1">
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A3" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="11">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="33">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="21"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="45"/>
     </row>
     <row r="4" spans="1:12" ht="21" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="A4" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="4" t="s">
+      <c r="B4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="11">
+        <v>386</v>
+      </c>
+      <c r="D4" s="33">
+        <v>0.5605</v>
+      </c>
+      <c r="E4" s="22" t="s">
         <v>26</v>
       </c>
+      <c r="F4" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="21"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="45"/>
     </row>
     <row r="5" spans="1:12" ht="21" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="11">
-        <v>9870</v>
-      </c>
-      <c r="D5" s="32">
-        <v>0.3135</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="21"/>
+        <v>24</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="18">
+        <v>70000</v>
+      </c>
+      <c r="D5" s="34">
+        <v>0.193</v>
+      </c>
+      <c r="E5" s="19">
+        <v>20200225</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="19">
+        <v>20200225</v>
+      </c>
+      <c r="H5" s="25">
+        <v>20021263</v>
+      </c>
+      <c r="I5" s="26"/>
       <c r="K5" s="9"/>
       <c r="L5" s="45"/>
     </row>
     <row r="6" spans="1:12" ht="21" customHeight="1">
       <c r="A6" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="11">
-        <v>10000</v>
-      </c>
-      <c r="D6" s="33">
-        <v>0.28199999999999997</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>32</v>
+        <v>24</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="18">
+        <v>580000</v>
+      </c>
+      <c r="D6" s="34">
+        <v>0.193</v>
+      </c>
+      <c r="E6" s="19">
+        <v>20200320</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="21"/>
+        <v>71</v>
+      </c>
+      <c r="G6" s="19">
+        <v>20200320</v>
+      </c>
+      <c r="H6" s="25">
+        <v>20032282</v>
+      </c>
+      <c r="I6" s="26"/>
       <c r="K6" s="9"/>
       <c r="L6" s="45"/>
     </row>
     <row r="7" spans="1:12" ht="21" customHeight="1">
       <c r="A7" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="11">
-        <v>386</v>
-      </c>
-      <c r="D7" s="33">
-        <v>0.5605</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>29</v>
+        <v>24</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="18">
+        <v>750000</v>
+      </c>
+      <c r="D7" s="34">
+        <v>0.193</v>
+      </c>
+      <c r="E7" s="19">
+        <v>20200320</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="21"/>
+        <v>71</v>
+      </c>
+      <c r="G7" s="19">
+        <v>20200320</v>
+      </c>
+      <c r="H7" s="25">
+        <v>20032281</v>
+      </c>
+      <c r="I7" s="26"/>
       <c r="K7" s="9"/>
       <c r="L7" s="45"/>
     </row>
     <row r="8" spans="1:12" ht="21" customHeight="1">
       <c r="A8" s="21" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C8" s="18">
-        <v>70000</v>
+        <v>250</v>
       </c>
       <c r="D8" s="34">
-        <v>0.193</v>
+        <v>0.85</v>
       </c>
       <c r="E8" s="19">
-        <v>20200225</v>
+        <v>20200214</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G8" s="19">
-        <v>20200225</v>
+        <v>20200211</v>
       </c>
       <c r="H8" s="25">
-        <v>20021263</v>
+        <v>20200785</v>
       </c>
       <c r="I8" s="26"/>
       <c r="K8" s="9"/>
@@ -3207,115 +3230,115 @@
     </row>
     <row r="9" spans="1:12" ht="21" customHeight="1">
       <c r="A9" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="11">
+        <v>5000</v>
+      </c>
+      <c r="D9" s="33">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="18">
-        <v>580000</v>
-      </c>
-      <c r="D9" s="34">
-        <v>0.193</v>
-      </c>
-      <c r="E9" s="19">
-        <v>20200320</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" s="19">
-        <v>20200320</v>
-      </c>
-      <c r="H9" s="25">
-        <v>20032282</v>
-      </c>
-      <c r="I9" s="26"/>
+      <c r="G9" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="21"/>
       <c r="K9" s="9"/>
       <c r="L9" s="45"/>
     </row>
     <row r="10" spans="1:12" ht="21" customHeight="1">
       <c r="A10" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="18">
-        <v>750000</v>
-      </c>
-      <c r="D10" s="34">
-        <v>0.193</v>
-      </c>
-      <c r="E10" s="19">
-        <v>20200320</v>
+        <v>32</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="11">
+        <v>3</v>
+      </c>
+      <c r="D10" s="33">
+        <v>225</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>29</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" s="19">
-        <v>20200320</v>
-      </c>
-      <c r="H10" s="25">
-        <v>20032281</v>
-      </c>
-      <c r="I10" s="26"/>
+        <v>33</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="21"/>
       <c r="K10" s="9"/>
       <c r="L10" s="45"/>
     </row>
     <row r="11" spans="1:12" ht="21" customHeight="1">
       <c r="A11" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="18">
-        <v>250</v>
-      </c>
-      <c r="D11" s="34">
-        <v>0.85</v>
-      </c>
-      <c r="E11" s="19">
-        <v>20200214</v>
+        <v>32</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="16">
+        <v>54527</v>
+      </c>
+      <c r="D11" s="33">
+        <v>0.2185</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>26</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11" s="19">
-        <v>20200211</v>
-      </c>
-      <c r="H11" s="25">
-        <v>20200785</v>
-      </c>
-      <c r="I11" s="26"/>
+        <v>33</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="21"/>
       <c r="K11" s="9"/>
       <c r="L11" s="45"/>
     </row>
     <row r="12" spans="1:12" ht="21" customHeight="1">
       <c r="A12" s="21" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="11">
-        <v>5000</v>
+        <v>35</v>
+      </c>
+      <c r="C12" s="16">
+        <v>60759</v>
       </c>
       <c r="D12" s="33">
-        <v>0.28499999999999998</v>
+        <v>0.2185</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I12" s="21"/>
       <c r="K12" s="9"/>
@@ -3323,28 +3346,28 @@
     </row>
     <row r="13" spans="1:12" ht="21" customHeight="1">
       <c r="A13" s="21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="C13" s="11">
-        <v>3</v>
+        <v>25219</v>
       </c>
       <c r="D13" s="33">
-        <v>225</v>
+        <v>0.247</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I13" s="21"/>
       <c r="K13" s="9"/>
@@ -3352,28 +3375,28 @@
     </row>
     <row r="14" spans="1:12" ht="21" customHeight="1">
       <c r="A14" s="21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C14" s="16">
-        <v>54527</v>
+        <v>16289</v>
       </c>
       <c r="D14" s="33">
-        <v>0.2185</v>
+        <v>0.247</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I14" s="21"/>
       <c r="K14" s="9"/>
@@ -3381,28 +3404,28 @@
     </row>
     <row r="15" spans="1:12" ht="21" customHeight="1">
       <c r="A15" s="21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="16">
-        <v>60759</v>
+      <c r="C15" s="11">
+        <v>8110</v>
       </c>
       <c r="D15" s="33">
-        <v>0.2185</v>
+        <v>0.247</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I15" s="21"/>
       <c r="K15" s="9"/>
@@ -3410,28 +3433,28 @@
     </row>
     <row r="16" spans="1:12" ht="21" customHeight="1">
       <c r="A16" s="21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C16" s="11">
-        <v>25219</v>
+        <v>3980</v>
       </c>
       <c r="D16" s="33">
-        <v>0.247</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I16" s="21"/>
       <c r="K16" s="9"/>
@@ -3439,28 +3462,28 @@
     </row>
     <row r="17" spans="1:12" ht="21" customHeight="1">
       <c r="A17" s="21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="16">
-        <v>16289</v>
+      <c r="C17" s="11">
+        <v>4000</v>
       </c>
       <c r="D17" s="33">
-        <v>0.247</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I17" s="21"/>
       <c r="K17" s="9"/>
@@ -3468,28 +3491,28 @@
     </row>
     <row r="18" spans="1:12" ht="21" customHeight="1">
       <c r="A18" s="21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C18" s="11">
-        <v>8110</v>
+        <v>4000</v>
       </c>
       <c r="D18" s="33">
-        <v>0.247</v>
+        <v>0.29449999999999998</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I18" s="21"/>
       <c r="K18" s="9"/>
@@ -3497,28 +3520,28 @@
     </row>
     <row r="19" spans="1:12" ht="21" customHeight="1">
       <c r="A19" s="21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C19" s="11">
-        <v>3980</v>
+        <v>4000</v>
       </c>
       <c r="D19" s="33">
-        <v>0.26600000000000001</v>
+        <v>0.29449999999999998</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I19" s="21"/>
       <c r="K19" s="9"/>
@@ -3526,7 +3549,7 @@
     </row>
     <row r="20" spans="1:12" ht="21" customHeight="1">
       <c r="A20" s="21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>43</v>
@@ -3535,19 +3558,19 @@
         <v>4000</v>
       </c>
       <c r="D20" s="33">
-        <v>0.26600000000000001</v>
+        <v>0.29449999999999998</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I20" s="21"/>
       <c r="K20" s="9"/>
@@ -3555,28 +3578,28 @@
     </row>
     <row r="21" spans="1:12" ht="21" customHeight="1">
       <c r="A21" s="21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C21" s="11">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="D21" s="33">
-        <v>0.29449999999999998</v>
+        <v>0.8569</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I21" s="21"/>
       <c r="K21" s="9"/>
@@ -3584,28 +3607,28 @@
     </row>
     <row r="22" spans="1:12" ht="21" customHeight="1">
       <c r="A22" s="21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C22" s="11">
-        <v>4000</v>
+        <v>9891</v>
       </c>
       <c r="D22" s="33">
-        <v>0.29449999999999998</v>
+        <v>0.8569</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I22" s="21"/>
       <c r="K22" s="9"/>
@@ -3613,28 +3636,28 @@
     </row>
     <row r="23" spans="1:12" ht="21" customHeight="1">
       <c r="A23" s="21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C23" s="11">
-        <v>4000</v>
+        <v>7835</v>
       </c>
       <c r="D23" s="33">
-        <v>0.29449999999999998</v>
+        <v>0.88539999999999996</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I23" s="21"/>
       <c r="K23" s="9"/>
@@ -3642,28 +3665,28 @@
     </row>
     <row r="24" spans="1:12" ht="21" customHeight="1">
       <c r="A24" s="21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="11">
-        <v>10000</v>
+      <c r="C24" s="16">
+        <v>3160</v>
       </c>
       <c r="D24" s="33">
-        <v>0.8569</v>
+        <v>0.88539999999999996</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I24" s="21"/>
       <c r="K24" s="9"/>
@@ -3671,28 +3694,28 @@
     </row>
     <row r="25" spans="1:12" ht="21" customHeight="1">
       <c r="A25" s="21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="11">
-        <v>9891</v>
+      <c r="C25" s="16">
+        <v>4248</v>
       </c>
       <c r="D25" s="33">
-        <v>0.8569</v>
+        <v>0.88539999999999996</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I25" s="21"/>
       <c r="K25" s="9"/>
@@ -3700,28 +3723,28 @@
     </row>
     <row r="26" spans="1:12" ht="21" customHeight="1">
       <c r="A26" s="21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C26" s="11">
-        <v>7835</v>
+        <v>1000</v>
       </c>
       <c r="D26" s="33">
-        <v>0.88539999999999996</v>
+        <v>0.9597</v>
       </c>
       <c r="E26" s="22" t="s">
         <v>29</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I26" s="21"/>
       <c r="K26" s="9"/>
@@ -3729,28 +3752,28 @@
     </row>
     <row r="27" spans="1:12" ht="21" customHeight="1">
       <c r="A27" s="21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="16">
-        <v>3160</v>
+      <c r="C27" s="11">
+        <v>1000</v>
       </c>
       <c r="D27" s="33">
-        <v>0.88539999999999996</v>
+        <v>0.9597</v>
       </c>
       <c r="E27" s="22" t="s">
         <v>29</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I27" s="21"/>
       <c r="K27" s="9"/>
@@ -3758,28 +3781,28 @@
     </row>
     <row r="28" spans="1:12" ht="21" customHeight="1">
       <c r="A28" s="21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="16">
-        <v>4248</v>
+      <c r="C28" s="11">
+        <v>1000</v>
       </c>
       <c r="D28" s="33">
-        <v>0.88539999999999996</v>
+        <v>0.99160000000000004</v>
       </c>
       <c r="E28" s="22" t="s">
         <v>29</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I28" s="21"/>
       <c r="K28" s="9"/>
@@ -3787,7 +3810,7 @@
     </row>
     <row r="29" spans="1:12" ht="21" customHeight="1">
       <c r="A29" s="21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>52</v>
@@ -3796,19 +3819,19 @@
         <v>1000</v>
       </c>
       <c r="D29" s="33">
-        <v>0.9597</v>
+        <v>0.99160000000000004</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I29" s="21"/>
       <c r="K29" s="9"/>
@@ -3816,7 +3839,7 @@
     </row>
     <row r="30" spans="1:12" ht="21" customHeight="1">
       <c r="A30" s="21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>53</v>
@@ -3825,19 +3848,19 @@
         <v>1000</v>
       </c>
       <c r="D30" s="33">
-        <v>0.9597</v>
+        <v>0.99160000000000004</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I30" s="21"/>
       <c r="K30" s="9"/>
@@ -3845,202 +3868,202 @@
     </row>
     <row r="31" spans="1:12" ht="21" customHeight="1">
       <c r="A31" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="11">
-        <v>1000</v>
-      </c>
-      <c r="D31" s="33">
-        <v>0.99160000000000004</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>32</v>
+        <v>24</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="14">
+        <v>600</v>
+      </c>
+      <c r="D31" s="34">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E31" s="19">
+        <v>20191104</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G31" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H31" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="I31" s="21"/>
+        <v>73</v>
+      </c>
+      <c r="G31" s="19">
+        <v>20191104</v>
+      </c>
+      <c r="H31" s="25">
+        <v>19117049</v>
+      </c>
+      <c r="I31" s="26"/>
       <c r="K31" s="9"/>
       <c r="L31" s="45"/>
     </row>
     <row r="32" spans="1:12" ht="21" customHeight="1">
       <c r="A32" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="11">
-        <v>1000</v>
-      </c>
-      <c r="D32" s="33">
-        <v>0.99160000000000004</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>32</v>
+        <v>24</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="14">
+        <v>9000</v>
+      </c>
+      <c r="D32" s="34">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E32" s="19">
+        <v>20200205</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G32" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H32" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="I32" s="21"/>
+        <v>73</v>
+      </c>
+      <c r="G32" s="19">
+        <v>20200115</v>
+      </c>
+      <c r="H32" s="25">
+        <v>20019906</v>
+      </c>
+      <c r="I32" s="26"/>
       <c r="K32" s="9"/>
       <c r="L32" s="45"/>
     </row>
     <row r="33" spans="1:12" ht="21" customHeight="1">
       <c r="A33" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" s="11">
-        <v>1000</v>
-      </c>
-      <c r="D33" s="33">
-        <v>0.99160000000000004</v>
-      </c>
-      <c r="E33" s="22" t="s">
         <v>32</v>
       </c>
+      <c r="B33" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="18">
+        <v>500</v>
+      </c>
+      <c r="D33" s="34">
+        <v>1.26</v>
+      </c>
+      <c r="E33" s="19">
+        <v>20190515</v>
+      </c>
       <c r="F33" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G33" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H33" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="I33" s="21"/>
+        <v>67</v>
+      </c>
+      <c r="G33" s="26">
+        <v>20190515</v>
+      </c>
+      <c r="H33" s="25">
+        <v>19050725</v>
+      </c>
+      <c r="I33" s="26"/>
       <c r="K33" s="9"/>
       <c r="L33" s="45"/>
     </row>
     <row r="34" spans="1:12" ht="21" customHeight="1">
       <c r="A34" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" s="14">
-        <v>600</v>
-      </c>
-      <c r="D34" s="34">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="E34" s="19">
-        <v>20191104</v>
+        <v>32</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="11">
+        <v>639</v>
+      </c>
+      <c r="D34" s="33">
+        <v>2.3778999999999999</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>29</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G34" s="19">
-        <v>20191104</v>
-      </c>
-      <c r="H34" s="25">
-        <v>19117049</v>
-      </c>
-      <c r="I34" s="26"/>
+        <v>33</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H34" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I34" s="21"/>
       <c r="K34" s="9"/>
       <c r="L34" s="45"/>
     </row>
     <row r="35" spans="1:12" ht="21" customHeight="1">
       <c r="A35" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="14">
-        <v>9000</v>
-      </c>
-      <c r="D35" s="34">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="E35" s="19">
-        <v>20200205</v>
+        <v>32</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="11">
+        <v>958</v>
+      </c>
+      <c r="D35" s="33">
+        <v>2.3778999999999999</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>29</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G35" s="19">
-        <v>20200115</v>
-      </c>
-      <c r="H35" s="25">
-        <v>20019906</v>
-      </c>
-      <c r="I35" s="26"/>
+        <v>33</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H35" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I35" s="21"/>
       <c r="K35" s="9"/>
       <c r="L35" s="45"/>
     </row>
     <row r="36" spans="1:12" ht="21" customHeight="1">
       <c r="A36" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36" s="18">
-        <v>500</v>
-      </c>
-      <c r="D36" s="34">
-        <v>1.26</v>
-      </c>
-      <c r="E36" s="19">
-        <v>20190515</v>
+        <v>32</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="16">
+        <v>978</v>
+      </c>
+      <c r="D36" s="33">
+        <v>2.3778999999999999</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>29</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="G36" s="26">
-        <v>20190515</v>
-      </c>
-      <c r="H36" s="25">
-        <v>19050725</v>
-      </c>
-      <c r="I36" s="26"/>
+        <v>33</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I36" s="21"/>
       <c r="K36" s="9"/>
       <c r="L36" s="45"/>
     </row>
     <row r="37" spans="1:12" ht="21" customHeight="1">
       <c r="A37" s="21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C37" s="11">
-        <v>639</v>
+        <v>995</v>
       </c>
       <c r="D37" s="33">
         <v>2.3778999999999999</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H37" s="21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I37" s="21"/>
       <c r="K37" s="9"/>
@@ -4048,28 +4071,28 @@
     </row>
     <row r="38" spans="1:12" ht="21" customHeight="1">
       <c r="A38" s="21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C38" s="11">
-        <v>958</v>
+        <v>783</v>
       </c>
       <c r="D38" s="33">
         <v>2.3778999999999999</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G38" s="24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H38" s="21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I38" s="21"/>
       <c r="K38" s="9"/>
@@ -4077,28 +4100,28 @@
     </row>
     <row r="39" spans="1:12" ht="21" customHeight="1">
       <c r="A39" s="21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C39" s="16">
-        <v>978</v>
+      <c r="C39" s="11">
+        <v>959</v>
       </c>
       <c r="D39" s="33">
-        <v>2.3778999999999999</v>
+        <v>3.0106000000000002</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G39" s="24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H39" s="21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I39" s="21"/>
       <c r="K39" s="9"/>
@@ -4106,28 +4129,28 @@
     </row>
     <row r="40" spans="1:12" ht="21" customHeight="1">
       <c r="A40" s="21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C40" s="11">
-        <v>995</v>
+        <v>1000</v>
       </c>
       <c r="D40" s="33">
-        <v>2.3778999999999999</v>
+        <v>3.0106000000000002</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G40" s="24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H40" s="21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I40" s="21"/>
       <c r="K40" s="9"/>
@@ -4135,94 +4158,91 @@
     </row>
     <row r="41" spans="1:12" ht="21" customHeight="1">
       <c r="A41" s="21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C41" s="11">
-        <v>783</v>
+        <v>1000</v>
       </c>
       <c r="D41" s="33">
-        <v>2.3778999999999999</v>
+        <v>3.0106000000000002</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G41" s="24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H41" s="21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I41" s="21"/>
-      <c r="K41" s="9"/>
       <c r="L41" s="45"/>
     </row>
     <row r="42" spans="1:12" ht="21" customHeight="1">
       <c r="A42" s="21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C42" s="11">
-        <v>959</v>
+        <v>1000</v>
       </c>
       <c r="D42" s="33">
         <v>3.0106000000000002</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G42" s="24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H42" s="21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I42" s="21"/>
-      <c r="K42" s="9"/>
       <c r="L42" s="45"/>
     </row>
     <row r="43" spans="1:12" ht="21" customHeight="1">
       <c r="A43" s="21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>63</v>
       </c>
       <c r="C43" s="11">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="D43" s="33">
         <v>3.0106000000000002</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G43" s="24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H43" s="21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I43" s="21"/>
-      <c r="K43" s="9"/>
       <c r="L43" s="45"/>
     </row>
     <row r="44" spans="1:12" ht="21" customHeight="1">
       <c r="A44" s="21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>64</v>
@@ -4234,129 +4254,45 @@
         <v>3.0106000000000002</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G44" s="24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H44" s="21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I44" s="21"/>
       <c r="L44" s="45"/>
     </row>
     <row r="45" spans="1:12" ht="21" customHeight="1">
-      <c r="A45" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" s="11">
-        <v>1000</v>
-      </c>
-      <c r="D45" s="33">
-        <v>3.0106000000000002</v>
-      </c>
-      <c r="E45" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F45" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G45" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H45" s="21" t="s">
-        <v>36</v>
-      </c>
+      <c r="A45" s="21"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="21"/>
       <c r="I45" s="21"/>
-      <c r="L45" s="45"/>
     </row>
     <row r="46" spans="1:12" ht="21" customHeight="1">
-      <c r="A46" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C46" s="11">
-        <v>990</v>
-      </c>
-      <c r="D46" s="33">
-        <v>3.0106000000000002</v>
-      </c>
-      <c r="E46" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F46" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G46" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H46" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="I46" s="21"/>
-      <c r="L46" s="45"/>
-    </row>
-    <row r="47" spans="1:12" ht="21" customHeight="1">
-      <c r="A47" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C47" s="11">
-        <v>1000</v>
-      </c>
-      <c r="D47" s="33">
-        <v>3.0106000000000002</v>
-      </c>
-      <c r="E47" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F47" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G47" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H47" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="I47" s="21"/>
-      <c r="L47" s="45"/>
-    </row>
-    <row r="48" spans="1:12" ht="21" customHeight="1">
-      <c r="A48" s="21"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
-    </row>
-    <row r="49" spans="1:9" ht="21" customHeight="1">
-      <c r="A49" s="21"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="26"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="26"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:I48">
-    <sortCondition ref="B5:B48"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I45">
+    <sortCondition ref="B2:B45"/>
   </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4366,21 +4302,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100582A5FBFA93DF9489A12435AF256ADB9" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cfa6fa0815ed57b47ac13d2e737b4bd4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="84533548-6a3c-44ad-8013-e8e6b4295ee4" xmlns:ns3="9c0d39b0-f853-46d0-be1c-b75ead6e7377" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ea696491f0239e03270050306e9e5ed" ns2:_="" ns3:_="">
     <xsd:import namespace="84533548-6a3c-44ad-8013-e8e6b4295ee4"/>
@@ -4603,24 +4524,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAA6CBAE-CA8A-46D3-BF4F-ED646E3DEE45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8495667F-6657-4F3B-9DAC-C19570D0C3AF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65A0DE48-A5BA-4E4B-8B49-CF706EACF49F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4637,4 +4556,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8495667F-6657-4F3B-9DAC-C19570D0C3AF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAA6CBAE-CA8A-46D3-BF4F-ED646E3DEE45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>